--- a/RXL_RCalc.xlsx
+++ b/RXL_RCalc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_RXL\Development\LAMBDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3640F60F-BC07-4C4C-AC79-4C5E869B8F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E56075-AB8C-40F2-9D2D-23097E21F49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C29E0D24-0EA8-4D41-8E06-9F040E158B6C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_OnOff">Lookups!$C$6:$C$7</definedName>
     <definedName name="_YesNo">Lookups!$C$3:$C$4</definedName>
-    <definedName name="RXL_RCalc" comment="Performs a rolling calculation on a 1D input data array">_xlfn.LAMBDA(_xlpm.array,_xlpm.calculation,_xlop.ignore_blanks,_xlop.ignore_zeros,_xlop.vertical_output,_xlfn.LET(_xlpm._num,IF(ISNUMBER(_xlpm.calculation),_xlpm.calculation,IFERROR(MATCH(LOWER(_xlpm.calculation),{"sum","count","avg","min","max"},0),0)),_xlpm._igB,IF(_xlfn.ISOMITTED(_xlpm.ignore_blanks),0,_xlpm.ignore_blanks),_xlpm._igZ,IF(_xlfn.ISOMITTED(_xlpm.ignore_zeros),0,_xlpm.ignore_zeros),_xlpm._vOut,IF(_xlfn.ISOMITTED(_xlpm.vertical_output),-1,IF(_xlpm.vertical_output,1,0)),_xlpm._inpChk,IF(OR(AND(ROWS(_xlpm.array)&gt;1,COLUMNS(_xlpm.array)&gt;1),ROWS(_xlpm.array)&lt;1,COLUMNS(_xlpm.array)&lt;1),2,IF(OR(AND(NOT(ISLOGICAL(_xlpm._igB)),NOT(ISNUMBER(_xlpm._igB))),AND(NOT(ISLOGICAL(_xlpm._igZ)),NOT(ISNUMBER(_xlpm._igZ))),_xlpm._num&lt;1,_xlpm._num&gt;5),3,1)),_xlpm._vrt,ROWS(_xlpm.array)&gt;COLUMNS(_xlpm.array),_xlpm._fltE,IF(ISERROR(_xlpm.array)," ",_xlpm.array),_xlpm._fltB,IF(_xlpm._igB,IF(ISBLANK(_xlpm.array)," ",_xlpm._fltE),_xlpm._fltE),_xlpm._fltZ,IF(_xlpm._igZ,IF((--NOT(ISERROR(_xlpm.array))*--NOT(ISBLANK(_xlpm.array))*--(IFERROR(_xlpm.array," ")=0))," ",_xlpm._fltB),_xlpm._fltB),_xlpm._fst,INDEX(_xlpm._fltZ,1,1),_xlpm._init,IF((--(_xlpm._fst&lt;&gt;" ")*--NOT(ISBLANK(_xlpm._fst))*--(IFERROR(_xlpm._fst," ")=0)),_xlpm._fst,NA()),_xlpm._sum,IF(OR(_xlpm._num=1,_xlpm._num=3),_xlfn.SCAN(0,_xlpm._fltZ,_xlfn.LAMBDA(_xlpm._acc,_xlpm._val,_xlpm._acc+IF(ISNUMBER(_xlpm._val),_xlpm._val,0))),""),_xlpm._cnt,IF(OR(_xlpm._num=2,_xlpm._num=3),_xlfn.SCAN(0,_xlpm._fltZ,_xlfn.LAMBDA(_xlpm._acc,_xlpm._val,_xlpm._acc+IF(ISNUMBER(_xlpm._val),1,0))),""),_xlpm._out,CHOOSE(_xlpm._num,_xlpm._sum,_xlpm._cnt,IF(_xlpm._cnt&lt;&gt;0,_xlpm._sum/_xlpm._cnt,0),_xlfn.SCAN(_xlpm._init,_xlpm._fltZ,_xlfn.LAMBDA(_xlpm._acc,_xlpm._val,_xlfn.IFS(AND(ISNA(_xlpm._acc),ISNUMBER(_xlpm._val)),_xlpm._val,ISNUMBER(_xlpm._val),MIN(_xlpm._acc,_xlpm._val),TRUE,_xlpm._acc))),_xlfn.SCAN(_xlpm._init,_xlpm._fltZ,_xlfn.LAMBDA(_xlpm._acc,_xlpm._val,_xlfn.IFS(AND(ISNA(_xlpm._acc),ISNUMBER(_xlpm._val)),_xlpm._val,ISNUMBER(_xlpm._val),MAX(_xlpm._acc,_xlpm._val),TRUE,_xlpm._acc)))),_xlpm._rtn,_xlfn.IFS(_xlpm._vOut&lt;0,_xlpm._out,OR(AND(_xlpm._vOut,NOT(_xlpm._vrt)),AND(NOT(_xlpm._vOut),_xlpm._vrt)),TRANSPOSE(_xlpm._out),TRUE,_xlpm._out),CHOOSE(_xlpm._inpChk,_xlpm._rtn,_xlfn.LAMBDA(0),#VALUE!)))</definedName>
+    <definedName name="RXL_RCalc" comment="Performs a rolling calculation on a 1D input data array">_xlfn.LAMBDA(_xlpm.array,_xlpm.calculation,_xlop.ignore_blanks,_xlop.ignore_zeros,_xlop.ignore_errors,_xlop.vertical_output,_xlfn.LET(_xlpm._num,IF(ISNUMBER(_xlpm.calculation),_xlpm.calculation,IFERROR(MATCH(LOWER(_xlpm.calculation),{"sum","count","avg","min","max"},0),0)),_xlpm._igB,IF(_xlfn.ISOMITTED(_xlpm.ignore_blanks),0,_xlpm.ignore_blanks),_xlpm._igZ,IF(_xlfn.ISOMITTED(_xlpm.ignore_zeros),0,_xlpm.ignore_zeros),_xlpm._igE,IF(_xlfn.ISOMITTED(_xlpm.ignore_errors),0,_xlpm.ignore_errors),_xlpm._vOut,IF(_xlfn.ISOMITTED(_xlpm.vertical_output),-1,IF(_xlpm.vertical_output,1,0)),_xlpm._inpChk,IF(OR(AND(ROWS(_xlpm.array)&gt;1,COLUMNS(_xlpm.array)&gt;1),ROWS(_xlpm.array)&lt;1,COLUMNS(_xlpm.array)&lt;1),2,IF(OR(AND(NOT(ISLOGICAL(_xlpm._igB)),NOT(ISNUMBER(_xlpm._igB))),AND(NOT(ISLOGICAL(_xlpm._igZ)),NOT(ISNUMBER(_xlpm._igZ))),AND(NOT(ISLOGICAL(_xlpm._igE)),NOT(ISNUMBER(_xlpm._igE))),_xlpm._num&lt;1,_xlpm._num&gt;5),3,1)),_xlpm._vrt,ROWS(_xlpm.array)&gt;COLUMNS(_xlpm.array),_xlpm._fltE,IF(_xlpm._igE,IF(ISERROR(_xlpm.array)," ",_xlpm.array),_xlfn.IFNA(_xlpm.array," ")),_xlpm._fltB,IF(_xlpm._igB,IF(ISBLANK(_xlpm.array)," ",_xlpm._fltE),_xlpm._fltE),_xlpm._fltZ,IF(_xlpm._igZ,IF((--NOT(ISERROR(_xlpm.array))*--NOT(ISBLANK(_xlpm.array))*--(IFERROR(_xlpm.array," ")=0))," ",_xlpm._fltB),_xlpm._fltB),_xlpm._fst,INDEX(_xlpm._fltZ,1,1),_xlpm._init,IF((--(_xlpm._fst&lt;&gt;" ")*--NOT(ISBLANK(_xlpm._fst))*--(IFERROR(_xlpm._fst," ")=0)),_xlpm._fst,NA()),_xlpm._sum,IF(OR(_xlpm._num=1,_xlpm._num=3),_xlfn.SCAN(0,_xlpm._fltZ,_xlfn.LAMBDA(_xlpm._acc,_xlpm._val,_xlpm._acc+IF(ISNUMBER(_xlpm._val),_xlpm._val,0))),""),_xlpm._cnt,IF(OR(_xlpm._num=2,_xlpm._num=3),_xlfn.SCAN(0,_xlpm._fltZ,_xlfn.LAMBDA(_xlpm._acc,_xlpm._val,_xlpm._acc+IF(ISNUMBER(_xlpm._val),1,0))),""),_xlpm._out,CHOOSE(_xlpm._num,_xlpm._sum,_xlpm._cnt,IF(_xlpm._cnt&lt;&gt;0,_xlpm._sum/_xlpm._cnt,0),_xlfn.SCAN(_xlpm._init,_xlpm._fltZ,_xlfn.LAMBDA(_xlpm._acc,_xlpm._val,_xlfn.IFS(AND(ISNA(_xlpm._acc),ISNUMBER(_xlpm._val)),_xlpm._val,ISNUMBER(_xlpm._val),MIN(_xlpm._acc,_xlpm._val),TRUE,_xlpm._acc))),_xlfn.SCAN(_xlpm._init,_xlpm._fltZ,_xlfn.LAMBDA(_xlpm._acc,_xlpm._val,_xlfn.IFS(AND(ISNA(_xlpm._acc),ISNUMBER(_xlpm._val)),_xlpm._val,ISNUMBER(_xlpm._val),MAX(_xlpm._acc,_xlpm._val),TRUE,_xlpm._acc)))),_xlpm._rtn,_xlfn.IFS(_xlpm._vOut&lt;0,_xlpm._out,OR(AND(_xlpm._vOut, NOT(_xlpm._vrt)),AND(NOT(_xlpm._vOut),_xlpm._vrt)),TRANSPOSE(_xlpm._out),TRUE,_xlpm._out),CHOOSE(_xlpm._inpChk,_xlpm._rtn,_xlfn.LAMBDA(0),#VALUE!)))</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="204">
   <si>
     <t>End of Sheet</t>
   </si>
@@ -208,9 +208,6 @@
     <t xml:space="preserve">Input Array: </t>
   </si>
   <si>
-    <t>Filtering input array with optional inputs (blanks &amp; zeros), plus example running COUNT calculation</t>
-  </si>
-  <si>
     <t xml:space="preserve">COUNT: </t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>_vrt, ROWS(array) &gt; COLUMNS(array),</t>
   </si>
   <si>
-    <t>_fltE, IF( ISERROR(array), " ", array),</t>
-  </si>
-  <si>
     <t>_fltB, IF(_igB, IF( ISBLANK(array), " ", _fltE), _fltE),</t>
   </si>
   <si>
@@ -416,21 +410,6 @@
   </si>
   <si>
     <t>Valid inputs are a number between 1 and 5 or a valid text string from the list below</t>
-  </si>
-  <si>
-    <t>= running SUM calculation</t>
-  </si>
-  <si>
-    <t>= running count of numeric values (COUNT)</t>
-  </si>
-  <si>
-    <t>= running AVERAGE calculation</t>
-  </si>
-  <si>
-    <t>= running MIN calculation</t>
-  </si>
-  <si>
-    <t>= running MAX calculation</t>
   </si>
   <si>
     <r>
@@ -613,6 +592,267 @@
     </r>
   </si>
   <si>
+    <t>// Deal with the calculation parameter input and attempt to match against expected text inputs if the input is not a number</t>
+  </si>
+  <si>
+    <t>// Deal with the optional input parameters and set default values for any omitted parameters</t>
+  </si>
+  <si>
+    <t>// Check input validity</t>
+  </si>
+  <si>
+    <t>//  --&gt; invalid array input (not a 1D array) will give a #CALC! error</t>
+  </si>
+  <si>
+    <t>//  --&gt; invalid calculation, ignore_blanks, or ignore_zeros parameter inputs will give a #VALUE! error</t>
+  </si>
+  <si>
+    <t>// Determine the orientation of the input data array</t>
+  </si>
+  <si>
+    <t>// Filter the input data array for error values, blank cells, and zero (0) values</t>
+  </si>
+  <si>
+    <t>// If the input checks (_inpChk) have flagged then return the required Excel error code, otherwise return the calculated result (_rtn)</t>
+  </si>
+  <si>
+    <t>// Determine whether to force a particular output orientation and transpose the calculated output as required</t>
+  </si>
+  <si>
+    <t>// Calculate the chosen output based on the user selected calculation input parameter</t>
+  </si>
+  <si>
+    <t>ROWS(array) &lt; 1, COLUMNS(array) &lt; 1),</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>IF( OR(</t>
+  </si>
+  <si>
+    <t>_num &lt; 1, _num &gt; 5),</t>
+  </si>
+  <si>
+    <t>3, 1</t>
+  </si>
+  <si>
+    <t>CHOOSE(_inpChk, _rtn, LAMBDA(0), #VALUE!)</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column: </t>
+  </si>
+  <si>
+    <t>Filtering input array for Errors, blanks, and zero (0) values</t>
+  </si>
+  <si>
+    <t>//  --&gt; uses the value in the array -- if this is not a number then the #N/A is used instead</t>
+  </si>
+  <si>
+    <t>//  --&gt; for the SUM, COUNT, and AVERAGE calculations, the starting value is 0 (zero)</t>
+  </si>
+  <si>
+    <t>Restricted to 1D input arrays only but with flexibility over orientation of input data array, i.e. single column or single row.</t>
+  </si>
+  <si>
+    <t>Extended to allow for calculated output array to either match the input array orientation or be forced to vertical (column) or horiztonal (row).</t>
+  </si>
+  <si>
+    <t>as such non-numeric values are ignored, and error values are exlcuded from the calculations by default;</t>
+  </si>
+  <si>
+    <t>Demonstrating Function Usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name:  </t>
+  </si>
+  <si>
+    <t>RXL_Rcalc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description:  </t>
+  </si>
+  <si>
+    <t>RCalc()</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Basic Data</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>inc. Errors</t>
+  </si>
+  <si>
+    <t>inc. Zeros</t>
+  </si>
+  <si>
+    <t>inc. Blanks</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Basic function outputs</t>
+  </si>
+  <si>
+    <t>Basic function outputs -- excludes errors by default</t>
+  </si>
+  <si>
+    <t>Excluding blank cells and/or zero values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore blanks? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ignore zeros? </t>
+  </si>
+  <si>
+    <t>Horizontal input array</t>
+  </si>
+  <si>
+    <t>Vertical input array</t>
+  </si>
+  <si>
+    <t>Vertical output?</t>
+  </si>
+  <si>
+    <t>Lambda function used to simplify rolling calculations for arrays, particularly dynamic arrays, and outputting as a dynamic array.</t>
+  </si>
+  <si>
+    <t>Only providing rolling numeric calculations, namely SUM, COUNT, AVERAGE, MIN, and MAX, with the user choosing which option to output</t>
+  </si>
+  <si>
+    <t>additional options to allow for excluding blank cells (otherwise treated as zero values) and zero (0) values from the rolling calculations.</t>
+  </si>
+  <si>
+    <t>Rolling SUM</t>
+  </si>
+  <si>
+    <t>Rolling COUNT</t>
+  </si>
+  <si>
+    <t>Rolling AVERAGE</t>
+  </si>
+  <si>
+    <t>Rolling MIN</t>
+  </si>
+  <si>
+    <t>Rolling MAX</t>
+  </si>
+  <si>
+    <t>Text or Numeric input parameter &amp; default value</t>
+  </si>
+  <si>
+    <t>Lambda function which helps in creating rolling calculations for arrays including dynamic arrays; function outputs a dynamic array output.</t>
+  </si>
+  <si>
+    <t>The user can choose to output a rolling SUM, rolling COUNT (numeric), rolling AVERAGE, rolling MIN, or rolling MAX for the input array.</t>
+  </si>
+  <si>
+    <t>The rolling calculations (including the COUNT) will only consider numeric values in the input array, and if blank values are not excluded they will be treated as zero (0) values.</t>
+  </si>
+  <si>
+    <t>By default the function will provide the output array (rolling calculation) in the same orientation as the input array, or the output array orientation can be force to horizontal or vertical.</t>
+  </si>
+  <si>
+    <t>An array of valus to be used for the rolling calculation -- must be a 1D array, i.e. single row or single column of data</t>
+  </si>
+  <si>
+    <t>for a row of data the rolling calculation will read from left to right</t>
+  </si>
+  <si>
+    <t>for a column of data the rolling calculation will read from top to bottom</t>
+  </si>
+  <si>
+    <t>A single value (number or text) to set the type of calculation to apply to the array of input data</t>
+  </si>
+  <si>
+    <t>A True/False value to determine whether or not include blank cells from the input array in the rolling calculation</t>
+  </si>
+  <si>
+    <t>A True/False value to determine whether or not include zero (0) values from the input array in the rolling calculation</t>
+  </si>
+  <si>
+    <t>Rolling Calculations Function</t>
+  </si>
+  <si>
+    <t>Performs a rolling calculation (SUM, COUNT, AVERAGE, MIN, MAX) on a 1D input data array, inc. dynamic arrays</t>
+  </si>
+  <si>
+    <t>= rolling SUM calculation</t>
+  </si>
+  <si>
+    <t>= rolling count of numeric values (COUNT)</t>
+  </si>
+  <si>
+    <t>= rolling AVERAGE calculation</t>
+  </si>
+  <si>
+    <t>= rolling MIN calculation</t>
+  </si>
+  <si>
+    <t>= rolling MAX calculation</t>
+  </si>
+  <si>
+    <t>[ignore_errors],</t>
+  </si>
+  <si>
+    <t>_igE, IF( ISOMITTED(ignore_errors), 0, ignore_errors),</t>
+  </si>
+  <si>
+    <t>AND( NOT(ISLOGICAL(_igE)), NOT(ISNUMBER(_igE))),</t>
+  </si>
+  <si>
+    <t>_fltE, IF(_igE, IF( ISERROR(array), " ", array), IFNA(array, " ")),</t>
+  </si>
+  <si>
+    <t>=LAMBDA(array,calculation,[ignore_blanks],[ignore_zeros],[ignore_errors],[vertical_output],LET(_num,IF(ISNUMBER(calculation),calculation,IFERROR(MATCH(LOWER(calculation),{"sum","count","avg","min","max"},0),0)),_igB,IF(ISOMITTED(ignore_blanks),0,ignore_blanks),_igZ,IF(ISOMITTED(ignore_zeros),0,ignore_zeros),_igE,IF(ISOMITTED(ignore_errors),0,ignore_errors),_vOut,IF(ISOMITTED(vertical_output),-1,IF(vertical_output,1,0)),_inpChk,IF(OR(AND(ROWS(array)&gt;1,COLUMNS(array)&gt;1),ROWS(array)&lt;1,COLUMNS(array)&lt;1),2,IF(OR(AND(NOT(ISLOGICAL(_igB)),NOT(ISNUMBER(_igB))),AND(NOT(ISLOGICAL(_igZ)),NOT(ISNUMBER(_igZ))),AND(NOT(ISLOGICAL(_igE)),NOT(ISNUMBER(_igE))),_num&lt;1,_num&gt;5),3,1)),_vrt,ROWS(array)&gt;COLUMNS(array),_fltE,IF(_igE,IF(ISERROR(array)," ",array),IFNA(array," ")),_fltB,IF(_igB,IF(ISBLANK(array)," ",_fltE),_fltE),_fltZ,IF(_igZ,IF((--NOT(ISERROR(array))*--NOT(ISBLANK(array))*--(IFERROR(array," ")=0))," ",_fltB),_fltB),_fst,INDEX(_fltZ,1,1),_init,IF((--(_fst&lt;&gt;" ")*--NOT(ISBLANK(_fst))*--(IFERROR(_fst," ")=0)),_fst,NA()),_sum,IF(OR(_num=1,_num=3),SCAN(0,_fltZ,LAMBDA(_acc,_val,_acc+IF(ISNUMBER(_val),_val,0))),""),_cnt,IF(OR(_num=2,_num=3),SCAN(0,_fltZ,LAMBDA(_acc,_val,_acc+IF(ISNUMBER(_val),1,0))),""),_out,CHOOSE(_num,_sum,_cnt,IF(_cnt&lt;&gt;0,_sum/_cnt,0),SCAN(_init,_fltZ,LAMBDA(_acc,_val,IFS(AND(ISNA(_acc),ISNUMBER(_val)),_val,ISNUMBER(_val),MIN(_acc,_val),TRUE,_acc))),SCAN(_init,_fltZ,LAMBDA(_acc,_val,IFS(AND(ISNA(_acc),ISNUMBER(_val)),_val,ISNUMBER(_val),MAX(_acc,_val),TRUE,_acc)))),_rtn,IFS(_vOut&lt;0,_out,OR(AND(_vOut, NOT(_vrt)),AND(NOT(_vOut),_vrt)),TRANSPOSE(_out),TRUE,_out),CHOOSE(_inpChk,_rtn,LAMBDA(0),#VALUE!)))</t>
+  </si>
+  <si>
+    <t>ignore_errors</t>
+  </si>
+  <si>
+    <t>A True/False value to determine whether or not include errors values ("# values") from the input array in the rolling calculation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#N/A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF002138"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> values will be excluded from the calculation regardless of this input parameter; the input applies to non-N/A error values</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -630,7 +870,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> and/or </t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -649,212 +889,36 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">, and/or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0065A8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ignore_errors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF002138"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> parameters are invalid -- not a number or logical (Boolean) value</t>
     </r>
   </si>
   <si>
-    <t>// Deal with the calculation parameter input and attempt to match against expected text inputs if the input is not a number</t>
-  </si>
-  <si>
-    <t>// Deal with the optional input parameters and set default values for any omitted parameters</t>
-  </si>
-  <si>
-    <t>// Check input validity</t>
-  </si>
-  <si>
-    <t>//  --&gt; invalid array input (not a 1D array) will give a #CALC! error</t>
-  </si>
-  <si>
-    <t>//  --&gt; invalid calculation, ignore_blanks, or ignore_zeros parameter inputs will give a #VALUE! error</t>
-  </si>
-  <si>
-    <t>// Determine the orientation of the input data array</t>
-  </si>
-  <si>
-    <t>// Filter the input data array for error values, blank cells, and zero (0) values</t>
-  </si>
-  <si>
-    <t>// Set the initial value for the running MIN and MAX calculations</t>
-  </si>
-  <si>
-    <t>// Calculate the running SUM and COUNT values to be used for the SUM, COUNT, or AVERAGE outputs</t>
-  </si>
-  <si>
-    <t>// If the input checks (_inpChk) have flagged then return the required Excel error code, otherwise return the calculated result (_rtn)</t>
-  </si>
-  <si>
-    <t>// Determine whether to force a particular output orientation and transpose the calculated output as required</t>
-  </si>
-  <si>
-    <t>// Calculate the chosen output based on the user selected calculation input parameter</t>
-  </si>
-  <si>
-    <t>ROWS(array) &lt; 1, COLUMNS(array) &lt; 1),</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>IF( OR(</t>
-  </si>
-  <si>
-    <t>_num &lt; 1, _num &gt; 5),</t>
-  </si>
-  <si>
-    <t>3, 1</t>
-  </si>
-  <si>
-    <t>CHOOSE(_inpChk, _rtn, LAMBDA(0), #VALUE!)</t>
-  </si>
-  <si>
-    <t>=LAMBDA(array,calculation,[ignore_blanks],[ignore_zeros],[vertical_output],LET(_num,IF(ISNUMBER(calculation),calculation,IFERROR(MATCH(LOWER(calculation),{"sum","count","avg","min","max"},0),0)),_igB,IF(ISOMITTED(ignore_blanks),0,ignore_blanks),_igZ,IF(ISOMITTED(ignore_zeros),0,ignore_zeros),_vOut,IF(ISOMITTED(vertical_output),-1,IF(vertical_output,1,0)),_inpChk,IF(OR(AND(ROWS(array)&gt;1,COLUMNS(array)&gt;1),ROWS(array)&lt;1,COLUMNS(array)&lt;1),2,IF(OR(AND(NOT(ISLOGICAL(_igB)),NOT(ISNUMBER(_igB))),AND(NOT(ISLOGICAL(_igZ)),NOT(ISNUMBER(_igZ))),_num&lt;1,_num&gt;5),3,1)),_vrt,ROWS(array)&gt;COLUMNS(array),_fltE,IF(ISERROR(array)," ",array),_fltB,IF(_igB,IF(ISBLANK(array)," ",_fltE),_fltE),_fltZ,IF(_igZ,IF((--NOT(ISERROR(array))*--NOT(ISBLANK(array))*--(IFERROR(array," ")=0))," ",_fltB),_fltB),_fst,INDEX(_fltZ,1,1),_init,IF((--(_fst&lt;&gt;" ")*--NOT(ISBLANK(_fst))*--(IFERROR(_fst," ")=0)),_fst,NA()),_sum,IF(OR(_num=1,_num=3),SCAN(0,_fltZ,LAMBDA(_acc,_val,_acc+IF(ISNUMBER(_val),_val,0))),""),_cnt,IF(OR(_num=2,_num=3),SCAN(0,_fltZ,LAMBDA(_acc,_val,_acc+IF(ISNUMBER(_val),1,0))),""),_out,CHOOSE(_num,_sum,_cnt,IF(_cnt&lt;&gt;0,_sum/_cnt,0),SCAN(_init,_fltZ,LAMBDA(_acc,_val,IFS(AND(ISNA(_acc),ISNUMBER(_val)),_val,ISNUMBER(_val),MIN(_acc,_val),TRUE,_acc))),SCAN(_init,_fltZ,LAMBDA(_acc,_val,IFS(AND(ISNA(_acc),ISNUMBER(_val)),_val,ISNUMBER(_val),MAX(_acc,_val),TRUE,_acc)))),_rtn,IFS(_vOut&lt;0,_out,OR(AND(_vOut,NOT(_vrt)),AND(NOT(_vOut),_vrt)),TRANSPOSE(_out),TRUE,_out),CHOOSE(_inpChk,_rtn,LAMBDA(0),#VALUE!)))</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column: </t>
-  </si>
-  <si>
-    <t>Filtering input array for Errors, blanks, and zero (0) values</t>
-  </si>
-  <si>
-    <t>//  --&gt; uses the value in the array -- if this is not a number then the #N/A is used instead</t>
-  </si>
-  <si>
-    <t>//  --&gt; for the SUM, COUNT, and AVERAGE calculations, the starting value is 0 (zero)</t>
-  </si>
-  <si>
-    <t>Restricted to 1D input arrays only but with flexibility over orientation of input data array, i.e. single column or single row.</t>
-  </si>
-  <si>
-    <t>Extended to allow for calculated output array to either match the input array orientation or be forced to vertical (column) or horiztonal (row).</t>
-  </si>
-  <si>
-    <t>as such non-numeric values are ignored, and error values are exlcuded from the calculations by default;</t>
-  </si>
-  <si>
-    <t>Demonstrating Function Usage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name:  </t>
-  </si>
-  <si>
-    <t>RXL_Rcalc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description:  </t>
-  </si>
-  <si>
-    <t>RCalc()</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Basic Data</t>
-  </si>
-  <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>inc. Errors</t>
-  </si>
-  <si>
-    <t>inc. Zeros</t>
-  </si>
-  <si>
-    <t>inc. Blanks</t>
-  </si>
-  <si>
-    <t>Initial</t>
-  </si>
-  <si>
-    <t>Basic function outputs</t>
-  </si>
-  <si>
-    <t>Basic function outputs -- excludes errors by default</t>
-  </si>
-  <si>
-    <t>Excluding blank cells and/or zero values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignore blanks? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignore zeros? </t>
-  </si>
-  <si>
-    <t>Horizontal input array</t>
-  </si>
-  <si>
-    <t>Vertical input array</t>
-  </si>
-  <si>
-    <t>Vertical output?</t>
-  </si>
-  <si>
-    <t>Lambda function used to simplify rolling calculations for arrays, particularly dynamic arrays, and outputting as a dynamic array.</t>
-  </si>
-  <si>
-    <t>Only providing rolling numeric calculations, namely SUM, COUNT, AVERAGE, MIN, and MAX, with the user choosing which option to output</t>
-  </si>
-  <si>
-    <t>additional options to allow for excluding blank cells (otherwise treated as zero values) and zero (0) values from the rolling calculations.</t>
-  </si>
-  <si>
-    <t>Rolling SUM</t>
-  </si>
-  <si>
-    <t>Rolling COUNT</t>
-  </si>
-  <si>
-    <t>Rolling AVERAGE</t>
-  </si>
-  <si>
-    <t>Rolling MIN</t>
-  </si>
-  <si>
-    <t>Rolling MAX</t>
-  </si>
-  <si>
-    <t>Text or Numeric input parameter &amp; default value</t>
-  </si>
-  <si>
-    <t>Lambda function which helps in creating rolling calculations for arrays including dynamic arrays; function outputs a dynamic array output.</t>
-  </si>
-  <si>
-    <t>The user can choose to output a rolling SUM, rolling COUNT (numeric), rolling AVERAGE, rolling MIN, or rolling MAX for the input array.</t>
-  </si>
-  <si>
-    <t>The rolling calculations (including the COUNT) will only consider numeric values in the input array, and if blank values are not excluded they will be treated as zero (0) values.</t>
-  </si>
-  <si>
-    <t>By default the function will provide the output array (rolling calculation) in the same orientation as the input array, or the output array orientation can be force to horizontal or vertical.</t>
-  </si>
-  <si>
-    <t>An array of valus to be used for the rolling calculation -- must be a 1D array, i.e. single row or single column of data</t>
-  </si>
-  <si>
-    <t>for a row of data the rolling calculation will read from left to right</t>
-  </si>
-  <si>
-    <t>for a column of data the rolling calculation will read from top to bottom</t>
-  </si>
-  <si>
-    <t>A single value (number or text) to set the type of calculation to apply to the array of input data</t>
-  </si>
-  <si>
-    <t>A True/False value to determine whether or not include blank cells from the input array in the rolling calculation</t>
-  </si>
-  <si>
-    <t>A True/False value to determine whether or not include zero (0) values from the input array in the rolling calculation</t>
-  </si>
-  <si>
-    <t>Rolling Calculations Function</t>
-  </si>
-  <si>
-    <t>Performs a rolling calculation (SUM, COUNT, AVERAGE, MIN, MAX) on a 1D input data array, inc. dynamic arrays</t>
+    <t>Filtering input array with optional inputs (blanks &amp; zeros), plus example rolling COUNT calculation</t>
+  </si>
+  <si>
+    <t>// Set the initial value for the rolling MIN and MAX calculations</t>
+  </si>
+  <si>
+    <t>// Calculate the rolling SUM and COUNT values to be used for the SUM, COUNT, or AVERAGE outputs</t>
   </si>
 </sst>
 </file>
@@ -874,7 +938,7 @@
     <numFmt numFmtId="173" formatCode="#,##0_);\(#,##0\);\ \-_)"/>
     <numFmt numFmtId="174" formatCode="0_);\(0\);\-_)"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF002138"/>
@@ -1217,6 +1281,18 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF195C89"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1876,7 +1952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="11" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1997,6 +2073,9 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="93">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -2649,7 +2728,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0BDDC6-BC3B-4F1D-AEDE-0C506C7B8343}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:AC495"/>
+  <dimension ref="B1:AC502"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2665,7 +2744,7 @@
   <sheetData>
     <row r="1" spans="3:28" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="3:28" x14ac:dyDescent="0.2">
@@ -2675,32 +2754,32 @@
     </row>
     <row r="4" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D6" s="42" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D7" s="42" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="3:28" x14ac:dyDescent="0.2">
@@ -2710,7 +2789,7 @@
     </row>
     <row r="12" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D12" s="14" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
@@ -3015,7 +3094,7 @@
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -3701,7 +3780,7 @@
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -4386,7 +4465,7 @@
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B88" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -5090,7 +5169,7 @@
     </row>
     <row r="125" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B125" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
@@ -5776,7 +5855,7 @@
     </row>
     <row r="159" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B159" s="11" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
@@ -7423,7 +7502,7 @@
     </row>
     <row r="231" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B231" s="11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -7458,10 +7537,10 @@
         <v>28</v>
       </c>
       <c r="E233" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F233" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="F233" s="24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="234" spans="2:29" x14ac:dyDescent="0.2">
@@ -7613,7 +7692,7 @@
     </row>
     <row r="246" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D246" s="21" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E246" s="23" cm="1">
         <f t="array" ref="E246:AB246" xml:space="preserve"> E12:AB12</f>
@@ -7769,12 +7848,12 @@
     </row>
     <row r="249" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C249" s="12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="250" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D250" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E250" s="22">
         <v>1</v>
@@ -7882,7 +7961,7 @@
     </row>
     <row r="255" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D255" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E255" s="16">
         <f xml:space="preserve"> COUNT(_xlfn.ANCHORARRAY(E254))</f>
@@ -7931,7 +8010,7 @@
     </row>
     <row r="263" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C263" s="12" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
     </row>
     <row r="264" spans="3:28" x14ac:dyDescent="0.2">
@@ -7952,7 +8031,7 @@
     </row>
     <row r="267" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D267" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E267" s="16" cm="1">
         <f t="array" ref="E267:AB267" xml:space="preserve"> _xlfn.LET(
@@ -8039,7 +8118,7 @@
     </row>
     <row r="268" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D268" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E268" s="16">
         <f xml:space="preserve"> MAX(_xlfn.ANCHORARRAY(E267))</f>
@@ -8106,7 +8185,7 @@
     </row>
     <row r="279" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B279" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C279" s="10"/>
       <c r="D279" s="10"/>
@@ -8138,12 +8217,12 @@
     </row>
     <row r="281" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C281" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="283" spans="2:29" x14ac:dyDescent="0.2">
       <c r="D283" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E283" s="27"/>
     </row>
@@ -8473,12 +8552,12 @@
     </row>
     <row r="322" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C322" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="324" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D324" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E324" s="27">
         <v>1</v>
@@ -8502,7 +8581,7 @@
     </row>
     <row r="327" spans="3:28" x14ac:dyDescent="0.2">
       <c r="D327" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E327" s="22">
         <v>0</v>
@@ -8966,82 +9045,82 @@
     </row>
     <row r="384" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C384" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="385" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D385" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="386" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D386" s="42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="387" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D387" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="388" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D388" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="389" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D389" s="42" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="390" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D390" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="392" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C392" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="393" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D393" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F393" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G393" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="394" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G394" s="41" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K394" s="41" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="395" spans="3:11" x14ac:dyDescent="0.2">
       <c r="K395" s="41" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="396" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D396" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F396" s="39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G396" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="397" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G397" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="398" spans="3:11" x14ac:dyDescent="0.2">
@@ -9049,10 +9128,10 @@
         <v>1</v>
       </c>
       <c r="H398" s="46" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I398" s="44" t="s">
-        <v>112</v>
+        <v>187</v>
       </c>
     </row>
     <row r="399" spans="3:11" x14ac:dyDescent="0.2">
@@ -9060,10 +9139,10 @@
         <v>2</v>
       </c>
       <c r="H399" s="46" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I399" s="44" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
     </row>
     <row r="400" spans="3:11" x14ac:dyDescent="0.2">
@@ -9071,499 +9150,542 @@
         <v>3</v>
       </c>
       <c r="H400" s="46" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I400" s="44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="401" spans="3:9" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="401" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G401" s="45">
         <v>4</v>
       </c>
       <c r="H401" s="46" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I401" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="402" spans="3:9" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="402" spans="4:9" x14ac:dyDescent="0.2">
       <c r="G402" s="45">
         <v>5</v>
       </c>
       <c r="H402" s="46" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I402" s="44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="403" spans="3:9" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="403" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D403" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F403" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G403" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="404" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G404" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="405" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G405" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="406" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D406" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F403" s="40" t="s">
+      <c r="F406" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G406" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="407" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G407" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G403" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="404" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G404" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="405" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G405" s="42" t="s">
+    </row>
+    <row r="408" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G408" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="409" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D409" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F409" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G409" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="410" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G410" s="42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="411" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G411" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="412" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D412" s="29"/>
+      <c r="F412" s="40"/>
+      <c r="G412" s="58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="413" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D413" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F413" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G413" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="406" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D406" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F406" s="40" t="s">
+    <row r="414" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G414" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G406" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="407" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G407" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="408" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G408" s="42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="409" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D409" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F409" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G409" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="410" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G410" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="411" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="G411" s="42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="413" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C413" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="414" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D414" s="30" t="e" vm="1">
+    </row>
+    <row r="415" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="G415" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="417" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C417" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="418" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D418" s="30" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="F414" s="47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="415" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D415" s="30" t="e">
+      <c r="F418" s="47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="419" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D419" s="30" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="F415" s="47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="416" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D416" s="30" t="e">
+      <c r="F419" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="420" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D420" s="30" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="F416" s="47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="418" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C418" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="419" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D419" s="31" t="s">
+      <c r="F420" s="47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="422" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C422" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="423" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D423" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="424" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D424" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="425" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D425" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="426" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D426" s="36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="420" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D420" s="37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="421" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D421" s="36" t="s">
+    <row r="427" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D427" s="36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D422" s="36" t="s">
+    <row r="428" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D428" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="423" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D423" s="36" t="s">
+    <row r="429" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D429" s="36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="430" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D430" s="36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="424" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D424" s="36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="425" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D425" s="36" t="s">
+    <row r="431" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D431" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="426" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D426" s="37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="427" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D427" s="32" t="s">
+    <row r="432" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D432" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D433" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D434" s="33" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="428" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D428" s="38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="429" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D429" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="430" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D430" s="38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="431" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D431" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="432" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D432" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D433" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D434" s="38" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="435" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D435" s="38" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="436" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D436" s="38" t="s">
-        <v>134</v>
+      <c r="D436" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="437" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D437" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D438" s="33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="439" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D439" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="440" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D440" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="441" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D441" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="442" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D442" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="443" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D443" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="444" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D444" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="438" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D438" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="439" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D439" s="34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="440" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D440" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="441" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D441" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="442" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D442" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="443" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D443" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="444" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D444" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
     <row r="445" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D445" s="35" t="s">
-        <v>146</v>
+      <c r="D445" s="34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="446" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D446" s="34" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="447" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D447" s="33" t="s">
-        <v>82</v>
+      <c r="D447" s="34" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="448" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D448" s="38" t="s">
+      <c r="D448" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D449" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D450" s="35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D451" s="35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D449" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D450" s="38" t="s">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D452" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D451" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D452" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="453" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D453" s="33" t="s">
-        <v>76</v>
+      <c r="D453" s="34" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="454" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D454" s="38" t="s">
-        <v>137</v>
+      <c r="D454" s="33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="455" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D455" s="38" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D456" s="38" t="s">
-        <v>153</v>
+      <c r="D456" s="33" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="457" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D457" s="33" t="s">
-        <v>77</v>
+      <c r="D457" s="38" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="458" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D458" s="33" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
     </row>
     <row r="459" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D459" s="38" t="s">
-        <v>138</v>
+      <c r="D459" s="33" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="460" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D460" s="33" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="461" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D461" s="34" t="s">
-        <v>80</v>
+      <c r="D461" s="38" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="462" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D462" s="34" t="s">
-        <v>81</v>
+      <c r="D462" s="38" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="463" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D463" s="33" t="s">
-        <v>82</v>
+      <c r="D463" s="38" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="464" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D464" s="33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="465" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D465" s="34" t="s">
-        <v>84</v>
+      <c r="D465" s="33" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="466" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D466" s="34" t="s">
-        <v>81</v>
+      <c r="D466" s="38" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="467" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D467" s="33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="468" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D468" s="38" t="s">
-        <v>141</v>
+      <c r="D468" s="34" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="469" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D469" s="33" t="s">
-        <v>85</v>
+      <c r="D469" s="34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="470" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D470" s="34" t="s">
-        <v>86</v>
+      <c r="D470" s="33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="471" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D471" s="34" t="s">
-        <v>87</v>
+      <c r="D471" s="33" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="472" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D472" s="34" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="473" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D473" s="34" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="474" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D474" s="34" t="s">
-        <v>90</v>
+      <c r="D474" s="33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="475" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D475" s="33" t="s">
-        <v>82</v>
+      <c r="D475" s="38" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="476" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D476" s="38" t="s">
-        <v>140</v>
+      <c r="D476" s="33" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="477" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D477" s="33" t="s">
-        <v>91</v>
+      <c r="D477" s="34" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="478" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D478" s="34" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="479" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D479" s="34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D480" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D481" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="482" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D482" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="483" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D483" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D484" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="485" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D485" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="486" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D486" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="487" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D487" s="35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D488" s="35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D480" s="35" t="s">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D489" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="490" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D490" s="34" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D481" s="35" t="s">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D491" s="34" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D482" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D483" s="34" t="s">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D492" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="493" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D493" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="494" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D494" s="33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="495" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D495" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D484" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D485" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D486" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D487" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D488" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D489" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C491" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D492" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="494" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="495" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B495" s="2" t="s">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D496" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C498" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D499" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="502" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B502" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9597,7 +9719,7 @@
     <row r="1" spans="1:19" s="48" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49"/>
       <c r="C1" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9606,29 +9728,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D4" s="50" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D5" s="50" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -9650,12 +9772,12 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="12" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D10" s="51" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E10" s="52">
         <v>6</v>
@@ -9694,12 +9816,12 @@
         <v>16</v>
       </c>
       <c r="R10" s="54" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D11" s="51" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E11" s="52">
         <v>6</v>
@@ -9743,7 +9865,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D12" s="51" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E12" s="52">
         <v>6</v>
@@ -9787,7 +9909,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D13" s="51" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E13" s="52">
         <v>6</v>
@@ -9832,7 +9954,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D15" s="51" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="53"/>
@@ -9946,7 +10068,7 @@
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="12" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.2">
@@ -10182,7 +10304,7 @@
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="12" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
@@ -10418,12 +10540,12 @@
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C40" s="12" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D41" s="21" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E41" s="53" t="b">
         <v>1</v>
@@ -10431,7 +10553,7 @@
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D42" s="21" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E42" s="53" t="b">
         <v>1</v>
@@ -10670,7 +10792,7 @@
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="12" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.2">
@@ -10723,7 +10845,7 @@
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D55" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" s="53" t="b">
         <v>1</v>
@@ -10734,86 +10856,86 @@
         <v>29</v>
       </c>
       <c r="E56" s="16" cm="1">
-        <f t="array" ref="E56:E67" xml:space="preserve"> RXL_RCalc(E$10:P$10, D56, , , E55)</f>
+        <f t="array" ref="E56:P56" xml:space="preserve"> RXL_RCalc(E$10:P$10, D56, , , E55)</f>
         <v>6</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
+      <c r="F56" s="16">
+        <v>15</v>
+      </c>
+      <c r="G56" s="16">
+        <v>26</v>
+      </c>
+      <c r="H56" s="16">
+        <v>28</v>
+      </c>
+      <c r="I56" s="16">
+        <v>42</v>
+      </c>
+      <c r="J56" s="16">
+        <v>45</v>
+      </c>
+      <c r="K56" s="16">
+        <v>52</v>
+      </c>
+      <c r="L56" s="16">
+        <v>63</v>
+      </c>
+      <c r="M56" s="16">
+        <v>73</v>
+      </c>
+      <c r="N56" s="16">
+        <v>92</v>
+      </c>
+      <c r="O56" s="16">
+        <v>94</v>
+      </c>
+      <c r="P56" s="16">
+        <v>110</v>
+      </c>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E57" s="16">
-        <v>15</v>
-      </c>
+      <c r="E57" s="16"/>
       <c r="F57" s="17" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(E56)</f>
         <v>= RXL_RCalc(E$10:P$10, D56, , , E55)</v>
       </c>
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E58" s="16">
-        <v>26</v>
-      </c>
+      <c r="E58" s="16"/>
     </row>
     <row r="59" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E59" s="16">
-        <v>28</v>
-      </c>
+      <c r="E59" s="16"/>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E60" s="16">
-        <v>42</v>
-      </c>
+      <c r="E60" s="16"/>
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E61" s="16">
-        <v>45</v>
-      </c>
+      <c r="E61" s="16"/>
     </row>
     <row r="62" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E62" s="16">
-        <v>52</v>
-      </c>
+      <c r="E62" s="16"/>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E63" s="16">
-        <v>63</v>
-      </c>
+      <c r="E63" s="16"/>
     </row>
     <row r="64" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E64" s="16">
-        <v>73</v>
-      </c>
+      <c r="E64" s="16"/>
     </row>
     <row r="65" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E65" s="16">
-        <v>92</v>
-      </c>
+      <c r="E65" s="16"/>
     </row>
     <row r="66" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E66" s="16">
-        <v>94</v>
-      </c>
+      <c r="E66" s="16"/>
     </row>
     <row r="67" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="E67" s="16">
-        <v>110</v>
-      </c>
+      <c r="E67" s="16"/>
     </row>
     <row r="68" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E68" s="16"/>
     </row>
     <row r="70" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C70" s="12" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="3:18" x14ac:dyDescent="0.2">
@@ -10821,7 +10943,7 @@
         <v>29</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G71" s="53" t="b">
         <v>0</v>
@@ -10836,48 +10958,28 @@
         <v>29</v>
       </c>
       <c r="G72" s="16" cm="1">
-        <f t="array" ref="G72:R72" xml:space="preserve"> RXL_RCalc($R$11:$R$22, F72, , , G71)</f>
+        <f t="array" ref="G72:G83" xml:space="preserve"> RXL_RCalc($R$11:$R$22, F72, , , G71)</f>
         <v>6</v>
       </c>
-      <c r="H72" s="16">
-        <v>15</v>
-      </c>
-      <c r="I72" s="16">
-        <v>26</v>
-      </c>
-      <c r="J72" s="16">
-        <v>28</v>
-      </c>
-      <c r="K72" s="16">
-        <v>42</v>
-      </c>
-      <c r="L72" s="16">
-        <v>45</v>
-      </c>
-      <c r="M72" s="16">
-        <v>52</v>
-      </c>
-      <c r="N72" s="16">
-        <v>63</v>
-      </c>
-      <c r="O72" s="16">
-        <v>73</v>
-      </c>
-      <c r="P72" s="16">
-        <v>92</v>
-      </c>
-      <c r="Q72" s="16">
-        <v>94</v>
-      </c>
-      <c r="R72" s="16">
-        <v>110</v>
-      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
     </row>
     <row r="73" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D73" s="16">
         <v>15</v>
       </c>
-      <c r="G73" s="16"/>
+      <c r="G73" s="16">
+        <v>15</v>
+      </c>
       <c r="H73" s="17" t="str">
         <f ca="1" xml:space="preserve"> _xlfn.FORMULATEXT(G72)</f>
         <v>= RXL_RCalc($R$11:$R$22, F72, , , G71)</v>
@@ -10887,61 +10989,81 @@
       <c r="D74" s="16">
         <v>26</v>
       </c>
-      <c r="G74" s="16"/>
+      <c r="G74" s="16">
+        <v>26</v>
+      </c>
     </row>
     <row r="75" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D75" s="16">
         <v>28</v>
       </c>
-      <c r="G75" s="16"/>
+      <c r="G75" s="16">
+        <v>28</v>
+      </c>
     </row>
     <row r="76" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D76" s="16">
         <v>42</v>
       </c>
-      <c r="G76" s="16"/>
+      <c r="G76" s="16">
+        <v>42</v>
+      </c>
     </row>
     <row r="77" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D77" s="16">
         <v>45</v>
       </c>
-      <c r="G77" s="16"/>
+      <c r="G77" s="16">
+        <v>45</v>
+      </c>
     </row>
     <row r="78" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D78" s="16">
         <v>52</v>
       </c>
-      <c r="G78" s="16"/>
+      <c r="G78" s="16">
+        <v>52</v>
+      </c>
     </row>
     <row r="79" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D79" s="16">
         <v>63</v>
       </c>
-      <c r="G79" s="16"/>
+      <c r="G79" s="16">
+        <v>63</v>
+      </c>
     </row>
     <row r="80" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D80" s="16">
         <v>73</v>
       </c>
-      <c r="G80" s="16"/>
+      <c r="G80" s="16">
+        <v>73</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D81" s="16">
         <v>92</v>
       </c>
-      <c r="G81" s="16"/>
+      <c r="G81" s="16">
+        <v>92</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D82" s="16">
         <v>94</v>
       </c>
-      <c r="G82" s="16"/>
+      <c r="G82" s="16">
+        <v>94</v>
+      </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D83" s="16">
         <v>110</v>
       </c>
-      <c r="G83" s="16"/>
+      <c r="G83" s="16">
+        <v>110</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D84" s="17" t="str">
